--- a/raw-data/CU.IMT_DATA.2023.xlsx
+++ b/raw-data/CU.IMT_DATA.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Library/CloudStorage/Box-Box/ECOBEAN/Experiments/Interrow Mowing Trial/IMT 2023/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBDF22-1D48-A948-A348-EB6A30225DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC48E990-0DEF-724A-833C-C71E60E36788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2620" yWindow="-20680" windowWidth="34560" windowHeight="19960" activeTab="2" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
+    <workbookView xWindow="2140" yWindow="3760" windowWidth="34560" windowHeight="19960" activeTab="4" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="6" r:id="rId1"/>
@@ -1713,7 +1713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1828,6 +1828,7 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1855,16 +1856,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1878,6 +1869,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1885,11 +1886,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4084,35 +4080,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="24"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="24" t="s">
         <v>1</v>
       </c>
@@ -4846,63 +4842,63 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="6"/>
-      <c r="I1" s="74" t="s">
+      <c r="I1" s="75" t="s">
         <v>300</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="77" t="s">
         <v>301</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="76"/>
-      <c r="AJ1" s="76"/>
-      <c r="AK1" s="76"/>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76"/>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76"/>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76"/>
-      <c r="AS1" s="76"/>
-      <c r="AT1" s="76"/>
-      <c r="AU1" s="76"/>
-      <c r="AV1" s="76"/>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76"/>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76"/>
-      <c r="BH1" s="76"/>
-      <c r="BI1" s="76"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="77"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="77"/>
+      <c r="AK1" s="77"/>
+      <c r="AL1" s="77"/>
+      <c r="AM1" s="77"/>
+      <c r="AN1" s="77"/>
+      <c r="AO1" s="77"/>
+      <c r="AP1" s="77"/>
+      <c r="AQ1" s="77"/>
+      <c r="AR1" s="77"/>
+      <c r="AS1" s="77"/>
+      <c r="AT1" s="77"/>
+      <c r="AU1" s="77"/>
+      <c r="AV1" s="77"/>
+      <c r="AW1" s="77"/>
+      <c r="AX1" s="77"/>
+      <c r="AY1" s="77"/>
+      <c r="AZ1" s="77"/>
+      <c r="BA1" s="77"/>
+      <c r="BB1" s="77"/>
+      <c r="BC1" s="77"/>
+      <c r="BD1" s="77"/>
+      <c r="BE1" s="77"/>
+      <c r="BF1" s="77"/>
+      <c r="BG1" s="77"/>
+      <c r="BH1" s="77"/>
+      <c r="BI1" s="77"/>
     </row>
     <row r="2" spans="1:61" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
@@ -4912,12 +4908,12 @@
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="75"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="14" t="s">
         <v>92</v>
       </c>
@@ -6283,35 +6279,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="33"/>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="31"/>
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
     </row>
     <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -6551,7 +6547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F7C23C-CB9F-BA41-A94E-723CD65BFEF4}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
@@ -6567,35 +6563,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="10" t="s">
         <v>1</v>
       </c>
@@ -6625,13 +6621,13 @@
       <c r="H4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="23" t="s">
         <v>393</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="23" t="s">
         <v>395</v>
       </c>
     </row>
@@ -6654,7 +6650,7 @@
       <c r="F5" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="78">
+      <c r="G5" s="56">
         <v>45100</v>
       </c>
       <c r="H5" s="30">
@@ -6692,7 +6688,7 @@
       <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" s="78">
+      <c r="G6" s="56">
         <v>45100</v>
       </c>
       <c r="H6" s="30">
@@ -6730,7 +6726,7 @@
       <c r="F7" t="s">
         <v>390</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="56">
         <v>45100</v>
       </c>
       <c r="H7" s="30">
@@ -6768,7 +6764,7 @@
       <c r="F8" t="s">
         <v>389</v>
       </c>
-      <c r="G8" s="78">
+      <c r="G8" s="56">
         <v>45100</v>
       </c>
       <c r="H8" s="30">
@@ -6806,7 +6802,7 @@
       <c r="F9" t="s">
         <v>390</v>
       </c>
-      <c r="G9" s="78">
+      <c r="G9" s="56">
         <v>45100</v>
       </c>
       <c r="H9" s="30">
@@ -6844,7 +6840,7 @@
       <c r="F10" t="s">
         <v>389</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="56">
         <v>45100</v>
       </c>
       <c r="H10" s="30">
@@ -6882,7 +6878,7 @@
       <c r="F11" t="s">
         <v>390</v>
       </c>
-      <c r="G11" s="78">
+      <c r="G11" s="56">
         <v>45100</v>
       </c>
       <c r="H11" s="30">
@@ -6920,7 +6916,7 @@
       <c r="F12" t="s">
         <v>388</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="56">
         <v>45100</v>
       </c>
       <c r="H12" s="30">
@@ -6958,7 +6954,7 @@
       <c r="F13" t="s">
         <v>389</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="56">
         <v>45100</v>
       </c>
       <c r="H13" s="30">
@@ -6996,7 +6992,7 @@
       <c r="F14" t="s">
         <v>390</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="56">
         <v>45100</v>
       </c>
       <c r="H14" s="30">
@@ -7034,7 +7030,7 @@
       <c r="F15" t="s">
         <v>389</v>
       </c>
-      <c r="G15" s="78">
+      <c r="G15" s="56">
         <v>45100</v>
       </c>
       <c r="H15" s="30">
@@ -7072,7 +7068,7 @@
       <c r="F16" t="s">
         <v>390</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="56">
         <v>45100</v>
       </c>
       <c r="H16" s="30">
@@ -7110,7 +7106,7 @@
       <c r="F17" t="s">
         <v>388</v>
       </c>
-      <c r="G17" s="78">
+      <c r="G17" s="56">
         <v>45100</v>
       </c>
       <c r="H17" s="30">
@@ -7148,7 +7144,7 @@
       <c r="F18" t="s">
         <v>389</v>
       </c>
-      <c r="G18" s="78">
+      <c r="G18" s="56">
         <v>45100</v>
       </c>
       <c r="H18" s="30">
@@ -7186,7 +7182,7 @@
       <c r="F19" t="s">
         <v>390</v>
       </c>
-      <c r="G19" s="78">
+      <c r="G19" s="56">
         <v>45100</v>
       </c>
       <c r="H19" s="30">
@@ -7224,7 +7220,7 @@
       <c r="F20" t="s">
         <v>389</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="56">
         <v>45100</v>
       </c>
       <c r="H20" s="30">
@@ -7262,7 +7258,7 @@
       <c r="F21" t="s">
         <v>390</v>
       </c>
-      <c r="G21" s="78">
+      <c r="G21" s="56">
         <v>45100</v>
       </c>
       <c r="H21" s="30">
@@ -7300,7 +7296,7 @@
       <c r="F22" t="s">
         <v>389</v>
       </c>
-      <c r="G22" s="78">
+      <c r="G22" s="56">
         <v>45100</v>
       </c>
       <c r="H22" s="30">
@@ -7338,7 +7334,7 @@
       <c r="F23" t="s">
         <v>390</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="56">
         <v>45100</v>
       </c>
       <c r="H23" s="30">
@@ -7376,7 +7372,7 @@
       <c r="F24" t="s">
         <v>388</v>
       </c>
-      <c r="G24" s="78">
+      <c r="G24" s="56">
         <v>45100</v>
       </c>
       <c r="H24" s="30">
@@ -7414,7 +7410,7 @@
       <c r="F25" t="s">
         <v>389</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="56">
         <v>45100</v>
       </c>
       <c r="H25" s="30">
@@ -7452,7 +7448,7 @@
       <c r="F26" t="s">
         <v>390</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="56">
         <v>45100</v>
       </c>
       <c r="H26" s="30">
@@ -7490,7 +7486,7 @@
       <c r="F27" t="s">
         <v>389</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="56">
         <v>45100</v>
       </c>
       <c r="H27" s="30">
@@ -7528,7 +7524,7 @@
       <c r="F28" t="s">
         <v>390</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="56">
         <v>45100</v>
       </c>
       <c r="H28" s="30">
@@ -7566,7 +7562,7 @@
       <c r="F29" t="s">
         <v>389</v>
       </c>
-      <c r="G29" s="78">
+      <c r="G29" s="56">
         <v>45100</v>
       </c>
       <c r="H29" s="30">
@@ -7604,7 +7600,7 @@
       <c r="F30" t="s">
         <v>390</v>
       </c>
-      <c r="G30" s="78">
+      <c r="G30" s="56">
         <v>45100</v>
       </c>
       <c r="H30" s="30">
@@ -7642,7 +7638,7 @@
       <c r="F31" t="s">
         <v>389</v>
       </c>
-      <c r="G31" s="78">
+      <c r="G31" s="56">
         <v>45100</v>
       </c>
       <c r="H31" s="30">
@@ -7680,7 +7676,7 @@
       <c r="F32" t="s">
         <v>390</v>
       </c>
-      <c r="G32" s="78">
+      <c r="G32" s="56">
         <v>45100</v>
       </c>
       <c r="H32" s="30">
@@ -7718,7 +7714,7 @@
       <c r="F33" t="s">
         <v>389</v>
       </c>
-      <c r="G33" s="78">
+      <c r="G33" s="56">
         <v>45100</v>
       </c>
       <c r="H33" s="30">
@@ -7756,7 +7752,7 @@
       <c r="F34" t="s">
         <v>390</v>
       </c>
-      <c r="G34" s="78">
+      <c r="G34" s="56">
         <v>45100</v>
       </c>
       <c r="H34" s="30">
@@ -7794,7 +7790,7 @@
       <c r="F35" t="s">
         <v>389</v>
       </c>
-      <c r="G35" s="78">
+      <c r="G35" s="56">
         <v>45100</v>
       </c>
       <c r="H35" s="30">
@@ -7832,7 +7828,7 @@
       <c r="F36" t="s">
         <v>390</v>
       </c>
-      <c r="G36" s="78">
+      <c r="G36" s="56">
         <v>45100</v>
       </c>
       <c r="H36" s="30">
@@ -7870,7 +7866,7 @@
       <c r="F37" t="s">
         <v>388</v>
       </c>
-      <c r="G37" s="78">
+      <c r="G37" s="56">
         <v>45100</v>
       </c>
       <c r="H37" s="30">
@@ -7908,7 +7904,7 @@
       <c r="F38" t="s">
         <v>389</v>
       </c>
-      <c r="G38" s="78">
+      <c r="G38" s="56">
         <v>45100</v>
       </c>
       <c r="H38" s="30">
@@ -7946,7 +7942,7 @@
       <c r="F39" t="s">
         <v>390</v>
       </c>
-      <c r="G39" s="78">
+      <c r="G39" s="56">
         <v>45100</v>
       </c>
       <c r="H39" s="30">
@@ -7984,7 +7980,7 @@
       <c r="F40" t="s">
         <v>389</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="56">
         <v>45100</v>
       </c>
       <c r="H40" s="30">
@@ -8032,71 +8028,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="69" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-      <c r="R1" s="70"/>
-      <c r="S1" s="71"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="65"/>
     </row>
     <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="58"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58"/>
+      <c r="S3" s="59"/>
     </row>
     <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -10588,97 +10584,97 @@
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="69" t="s">
         <v>319</v>
       </c>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="69" t="s">
         <v>320</v>
       </c>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="69"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="69"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A44" s="73" t="s">
+      <c r="A44" s="70" t="s">
         <v>321</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
+      <c r="A45" s="71" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="65"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="65"/>
-      <c r="E45" s="65"/>
-      <c r="F45" s="65"/>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A46" s="66" t="s">
+      <c r="A46" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
+      <c r="B46" s="72"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="B47" s="67"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
+      <c r="B47" s="73"/>
+      <c r="C47" s="73"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A48" s="68" t="s">
+      <c r="A48" s="74" t="s">
         <v>325</v>
       </c>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="74" t="s">
         <v>326</v>
       </c>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="H1:S3"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A49:F49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -10689,8 +10685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43E3C537-5808-5F4F-8834-747C0AC15F7A}">
   <dimension ref="A1:AC48"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10708,15 +10704,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="65"/>
       <c r="H1" s="34"/>
       <c r="I1" s="11"/>
       <c r="J1" s="9"/>
@@ -10727,13 +10723,13 @@
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="64"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="34"/>
       <c r="I2" s="11"/>
       <c r="J2" s="9"/>
@@ -10744,13 +10740,13 @@
       <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="58"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="12"/>
       <c r="I3" s="9" t="s">
         <v>80</v>
@@ -10905,7 +10901,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="R5">
-        <f t="shared" ref="R5:R40" si="0">N5/454</f>
+        <f>N5/454</f>
         <v>0.48898678414096919</v>
       </c>
       <c r="S5">
@@ -10917,8 +10913,8 @@
         <v>21.646610078435586</v>
       </c>
       <c r="U5" s="54">
-        <f>N5*10</f>
-        <v>2220</v>
+        <f>S5*1.12085</f>
+        <v>1455.7561743848714</v>
       </c>
       <c r="V5">
         <f>O5*10</f>
@@ -10944,7 +10940,7 @@
       </c>
       <c r="AB5">
         <f>U5*W5</f>
-        <v>2581.3950906976743</v>
+        <v>1692.7395683828533</v>
       </c>
       <c r="AC5">
         <v>2581.3950906976702</v>
@@ -10979,14 +10975,14 @@
         <v>14</v>
       </c>
       <c r="J6" s="46">
-        <f t="shared" ref="J6:J40" si="1">AVERAGE(H6:I6)</f>
+        <f t="shared" ref="J6:J40" si="0">AVERAGE(H6:I6)</f>
         <v>15.5</v>
       </c>
       <c r="K6" s="46">
         <v>15.5</v>
       </c>
       <c r="L6" s="46">
-        <f t="shared" ref="L6:L40" si="2">H6+I6</f>
+        <f t="shared" ref="L6:L40" si="1">H6+I6</f>
         <v>31</v>
       </c>
       <c r="M6" s="46">
@@ -11002,11 +10998,11 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <f t="shared" ref="Q6:Q40" si="3">(3.28*2)*2.5</f>
+        <f t="shared" ref="Q6:Q40" si="2">(3.28*2)*2.5</f>
         <v>16.399999999999999</v>
       </c>
       <c r="R6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="R5:R40" si="3">N6/454</f>
         <v>0.65859030837004406</v>
       </c>
       <c r="S6">
@@ -11017,9 +11013,9 @@
         <f t="shared" ref="T6:T40" si="5">S6/60</f>
         <v>29.15466852906415</v>
       </c>
-      <c r="U6">
-        <f t="shared" ref="U6:V24" si="6">N6*10</f>
-        <v>2990</v>
+      <c r="U6" s="54">
+        <f t="shared" ref="U6:U40" si="6">S6*1.12085</f>
+        <v>1960.6806132480929</v>
       </c>
       <c r="V6">
         <f>O6*10</f>
@@ -11045,7 +11041,7 @@
       </c>
       <c r="AB6">
         <f t="shared" ref="AB6:AB40" si="10">U6*W6</f>
-        <v>3476.7438383720928</v>
+        <v>2279.8609502093386</v>
       </c>
       <c r="AC6">
         <v>3476.7438383720928</v>
@@ -11080,14 +11076,14 @@
         <v>26</v>
       </c>
       <c r="J7" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="K7" s="46">
         <v>22</v>
       </c>
       <c r="L7" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="M7" s="46">
@@ -11103,11 +11099,11 @@
         <v>0</v>
       </c>
       <c r="Q7">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R7">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R7">
-        <f t="shared" si="0"/>
         <v>1.0396475770925111</v>
       </c>
       <c r="S7">
@@ -11118,12 +11114,12 @@
         <f t="shared" si="5"/>
         <v>46.023423229827017</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="54">
         <f t="shared" si="6"/>
-        <v>4720</v>
+        <v>3095.1212356290966</v>
       </c>
       <c r="V7">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="U6:V24" si="11">O7*10</f>
         <v>4720</v>
       </c>
       <c r="W7" s="52">
@@ -11146,7 +11142,7 @@
       </c>
       <c r="AB7">
         <f t="shared" si="10"/>
-        <v>5488.3715441860459</v>
+        <v>3598.9778210662475</v>
       </c>
       <c r="AC7">
         <v>5488.3715441860459</v>
@@ -11181,14 +11177,14 @@
         <v>14</v>
       </c>
       <c r="J8" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="K8" s="46">
         <v>16.5</v>
       </c>
       <c r="L8" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M8" s="46">
@@ -11204,11 +11200,11 @@
         <v>0</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
         <v>0.67621145374449343</v>
       </c>
       <c r="S8">
@@ -11219,12 +11215,12 @@
         <f t="shared" si="5"/>
         <v>29.934726549908671</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="54">
         <f t="shared" si="6"/>
-        <v>3070</v>
+        <v>2013.1402952079079</v>
       </c>
       <c r="V8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3070</v>
       </c>
       <c r="W8" s="52">
@@ -11247,7 +11243,7 @@
       </c>
       <c r="AB8">
         <f t="shared" si="10"/>
-        <v>3569.7670848837206</v>
+        <v>2340.8605742952072</v>
       </c>
       <c r="AC8">
         <v>3569.7670848837206</v>
@@ -11282,14 +11278,14 @@
         <v>26</v>
       </c>
       <c r="J9" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24.5</v>
       </c>
       <c r="K9" s="46">
         <v>24.5</v>
       </c>
       <c r="L9" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="M9" s="46">
@@ -11305,11 +11301,11 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
         <v>1.0044052863436124</v>
       </c>
       <c r="S9">
@@ -11320,12 +11316,12 @@
         <f t="shared" si="5"/>
         <v>44.463307188137961</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="54">
         <f t="shared" si="6"/>
-        <v>4560</v>
+        <v>2990.2018717094656</v>
       </c>
       <c r="V9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4560</v>
       </c>
       <c r="W9" s="52">
@@ -11348,7 +11344,7 @@
       </c>
       <c r="AB9">
         <f t="shared" si="10"/>
-        <v>5302.3250511627903</v>
+        <v>3476.9785728945094</v>
       </c>
       <c r="AC9">
         <v>5302.3250511627903</v>
@@ -11383,14 +11379,14 @@
         <v>26</v>
       </c>
       <c r="J10" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21.5</v>
       </c>
       <c r="K10" s="46">
         <v>21.5</v>
       </c>
       <c r="L10" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="M10" s="46">
@@ -11406,11 +11402,11 @@
         <v>0</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
         <v>0.98237885462555063</v>
       </c>
       <c r="S10">
@@ -11421,12 +11417,12 @@
         <f t="shared" si="5"/>
         <v>43.488234662082306</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="54">
         <f t="shared" si="6"/>
-        <v>4460</v>
+        <v>2924.6272692596972</v>
       </c>
       <c r="V10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4460</v>
       </c>
       <c r="W10" s="52">
@@ -11449,7 +11445,7 @@
       </c>
       <c r="AB10">
         <f t="shared" si="10"/>
-        <v>5186.0459930232555</v>
+        <v>3400.7290427871744</v>
       </c>
       <c r="AC10">
         <v>5186.0459930232555</v>
@@ -11484,14 +11480,14 @@
         <v>15</v>
       </c>
       <c r="J11" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K11" s="46">
         <v>18</v>
       </c>
       <c r="L11" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M11" s="46">
@@ -11507,11 +11503,11 @@
         <v>0</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R11">
-        <f t="shared" si="0"/>
         <v>0.5374449339207048</v>
       </c>
       <c r="S11">
@@ -11522,12 +11518,12 @@
         <f t="shared" si="5"/>
         <v>23.791769635758033</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="54">
         <f t="shared" si="6"/>
-        <v>2440</v>
+        <v>1600.0202997743634</v>
       </c>
       <c r="V11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2440</v>
       </c>
       <c r="W11" s="52">
@@ -11550,7 +11546,7 @@
       </c>
       <c r="AB11">
         <f t="shared" si="10"/>
-        <v>2837.2090186046507</v>
+        <v>1860.4885346189922</v>
       </c>
       <c r="AC11">
         <v>2837.2090186046507</v>
@@ -11585,14 +11581,14 @@
         <v>21</v>
       </c>
       <c r="J12" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="K12" s="46">
         <v>20.5</v>
       </c>
       <c r="L12" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M12" s="46">
@@ -11608,11 +11604,11 @@
         <v>0</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="0"/>
         <v>0.96916299559471364</v>
       </c>
       <c r="S12">
@@ -11623,12 +11619,12 @@
         <f t="shared" si="5"/>
         <v>42.903191146448911</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="54">
         <f t="shared" si="6"/>
-        <v>4400</v>
+        <v>2885.2825077898356</v>
       </c>
       <c r="V12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4400</v>
       </c>
       <c r="W12" s="52">
@@ -11651,7 +11647,7 @@
       </c>
       <c r="AB12">
         <f t="shared" si="10"/>
-        <v>5116.2785581395347</v>
+        <v>3354.9793247227726</v>
       </c>
       <c r="AC12">
         <v>5116.2785581395347</v>
@@ -11686,14 +11682,14 @@
         <v>20</v>
       </c>
       <c r="J13" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="K13" s="46">
         <v>20.5</v>
       </c>
       <c r="L13" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="M13" s="46">
@@ -11709,11 +11705,11 @@
         <v>0</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="0"/>
         <v>0.78634361233480177</v>
       </c>
       <c r="S13">
@@ -11724,12 +11720,12 @@
         <f t="shared" si="5"/>
         <v>34.810089180186964</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="54">
         <f t="shared" si="6"/>
-        <v>3570</v>
+        <v>2341.013307456753</v>
       </c>
       <c r="V13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3570</v>
       </c>
       <c r="W13" s="52">
@@ -11752,7 +11748,7 @@
       </c>
       <c r="AB13">
         <f t="shared" si="10"/>
-        <v>4151.1623755813953</v>
+        <v>2722.1082248318862</v>
       </c>
       <c r="AC13">
         <v>4151.1623755813953</v>
@@ -11787,14 +11783,14 @@
         <v>19</v>
       </c>
       <c r="J14" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K14" s="46">
         <v>18</v>
       </c>
       <c r="L14" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M14" s="46">
@@ -11810,11 +11806,11 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R14">
-        <f t="shared" si="0"/>
         <v>0.89427312775330392</v>
       </c>
       <c r="S14">
@@ -11825,12 +11821,12 @@
         <f t="shared" si="5"/>
         <v>39.587944557859679</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="54">
         <f t="shared" si="6"/>
-        <v>4060</v>
+        <v>2662.3288594606211</v>
       </c>
       <c r="V14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4060</v>
       </c>
       <c r="W14" s="52">
@@ -11853,7 +11849,7 @@
       </c>
       <c r="AB14">
         <f t="shared" si="10"/>
-        <v>4720.9297604651156</v>
+        <v>3095.7309223578313</v>
       </c>
       <c r="AC14">
         <v>4720.9297604651156</v>
@@ -11888,14 +11884,14 @@
         <v>20</v>
       </c>
       <c r="J15" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="K15" s="46">
         <v>18.5</v>
       </c>
       <c r="L15" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M15" s="46">
@@ -11911,11 +11907,11 @@
         <v>0</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="0"/>
         <v>0.44713656387665196</v>
       </c>
       <c r="S15">
@@ -11926,12 +11922,12 @@
         <f t="shared" si="5"/>
         <v>19.793972278929839</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="54">
         <f t="shared" si="6"/>
-        <v>2030</v>
+        <v>1331.1644297303105</v>
       </c>
       <c r="V15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2030</v>
       </c>
       <c r="W15" s="52">
@@ -11954,7 +11950,7 @@
       </c>
       <c r="AB15">
         <f t="shared" si="10"/>
-        <v>2360.4648802325578</v>
+        <v>1547.8654611789157</v>
       </c>
       <c r="AC15">
         <v>2360.4648802325578</v>
@@ -11989,14 +11985,14 @@
         <v>19</v>
       </c>
       <c r="J16" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.5</v>
       </c>
       <c r="K16" s="46">
         <v>16.5</v>
       </c>
       <c r="L16" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="M16" s="46">
@@ -12012,11 +12008,11 @@
         <v>0</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="0"/>
         <v>0.81938325991189431</v>
       </c>
       <c r="S16">
@@ -12027,12 +12023,12 @@
         <f t="shared" si="5"/>
         <v>36.272697969270446</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="54">
         <f t="shared" si="6"/>
-        <v>3720</v>
+        <v>2439.3752111314066</v>
       </c>
       <c r="V16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3720</v>
       </c>
       <c r="W16" s="52">
@@ -12055,7 +12051,7 @@
       </c>
       <c r="AB16">
         <f t="shared" si="10"/>
-        <v>4325.5809627906974</v>
+        <v>2836.48251999289</v>
       </c>
       <c r="AC16">
         <v>4325.5809627906974</v>
@@ -12090,14 +12086,14 @@
         <v>25</v>
       </c>
       <c r="J17" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="K17" s="46">
         <v>24</v>
       </c>
       <c r="L17" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="M17" s="46">
@@ -12113,11 +12109,11 @@
         <v>0</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="0"/>
         <v>1.3832599118942732</v>
       </c>
       <c r="S17">
@@ -12128,12 +12124,12 @@
         <f t="shared" si="5"/>
         <v>61.234554636295265</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="54">
         <f t="shared" si="6"/>
-        <v>6280</v>
+        <v>4118.0850338454929</v>
       </c>
       <c r="V17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6280</v>
       </c>
       <c r="W17" s="52">
@@ -12156,7 +12152,7 @@
       </c>
       <c r="AB17">
         <f t="shared" si="10"/>
-        <v>7302.3248511627899</v>
+        <v>4788.4704907406849</v>
       </c>
       <c r="AC17">
         <v>7302.3248511627899</v>
@@ -12191,14 +12187,14 @@
         <v>20</v>
       </c>
       <c r="J18" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="K18" s="46">
         <v>18.5</v>
       </c>
       <c r="L18" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="M18" s="46">
@@ -12214,11 +12210,11 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R18">
-        <f t="shared" si="0"/>
         <v>0.59471365638766516</v>
       </c>
       <c r="S18">
@@ -12229,12 +12225,12 @@
         <f t="shared" si="5"/>
         <v>26.326958203502738</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="54">
         <f t="shared" si="6"/>
-        <v>2700</v>
+        <v>1770.5142661437626</v>
       </c>
       <c r="V18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2700</v>
       </c>
       <c r="W18" s="52">
@@ -12257,7 +12253,7 @@
       </c>
       <c r="AB18">
         <f t="shared" si="10"/>
-        <v>3139.5345697674416</v>
+        <v>2058.7373128980648</v>
       </c>
       <c r="AC18">
         <v>3139.5345697674416</v>
@@ -12292,14 +12288,14 @@
         <v>19</v>
       </c>
       <c r="J19" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K19" s="46">
         <v>18</v>
       </c>
       <c r="L19" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M19" s="46">
@@ -12315,11 +12311,11 @@
         <v>0</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R19">
-        <f t="shared" si="0"/>
         <v>0.92070484581497802</v>
       </c>
       <c r="S19">
@@ -12330,12 +12326,12 @@
         <f t="shared" si="5"/>
         <v>40.758031589126475</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="54">
         <f t="shared" si="6"/>
-        <v>4180</v>
+        <v>2741.0183824003443</v>
       </c>
       <c r="V19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4180</v>
       </c>
       <c r="W19" s="52">
@@ -12358,7 +12354,7 @@
       </c>
       <c r="AB19">
         <f t="shared" si="10"/>
-        <v>4860.4646302325582</v>
+        <v>3187.2303584866345</v>
       </c>
       <c r="AC19">
         <v>4860.4646302325582</v>
@@ -12393,14 +12389,14 @@
         <v>11</v>
       </c>
       <c r="J20" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="K20" s="46">
         <v>12.5</v>
       </c>
       <c r="L20" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="M20" s="46">
@@ -12416,11 +12412,11 @@
         <v>0</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
         <v>0.6541850220264317</v>
       </c>
       <c r="S20">
@@ -12431,12 +12427,12 @@
         <f t="shared" si="5"/>
         <v>28.959654023853016</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="54">
         <f t="shared" si="6"/>
-        <v>2970</v>
+        <v>1947.565692758139</v>
       </c>
       <c r="V20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2970</v>
       </c>
       <c r="W20" s="52">
@@ -12459,7 +12455,7 @@
       </c>
       <c r="AB20">
         <f t="shared" si="10"/>
-        <v>3453.4880267441858</v>
+        <v>2264.6110441878714</v>
       </c>
       <c r="AC20">
         <v>3453.4880267441858</v>
@@ -12494,14 +12490,14 @@
         <v>21</v>
       </c>
       <c r="J21" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K21" s="46">
         <v>18</v>
       </c>
       <c r="L21" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M21" s="46">
@@ -12517,11 +12513,11 @@
         <v>0</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="0"/>
         <v>0.96916299559471364</v>
       </c>
       <c r="S21">
@@ -12532,12 +12528,12 @@
         <f t="shared" si="5"/>
         <v>42.903191146448911</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="54">
         <f t="shared" si="6"/>
-        <v>4400</v>
+        <v>2885.2825077898356</v>
       </c>
       <c r="V21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4400</v>
       </c>
       <c r="W21" s="52">
@@ -12560,7 +12556,7 @@
       </c>
       <c r="AB21">
         <f t="shared" si="10"/>
-        <v>5116.2785581395347</v>
+        <v>3354.9793247227726</v>
       </c>
       <c r="AC21">
         <v>5116.2785581395347</v>
@@ -12595,7 +12591,7 @@
         <v>327</v>
       </c>
       <c r="J22" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K22" s="46">
@@ -12617,11 +12613,11 @@
         <v>0</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R22">
-        <f t="shared" si="0"/>
         <v>0.86784140969162993</v>
       </c>
       <c r="S22">
@@ -12632,12 +12628,12 @@
         <f t="shared" si="5"/>
         <v>38.41785752659289</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="54">
         <f t="shared" si="6"/>
-        <v>3940</v>
+        <v>2583.6393365208983</v>
       </c>
       <c r="V22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3940</v>
       </c>
       <c r="W22" s="52">
@@ -12660,7 +12656,7 @@
       </c>
       <c r="AB22">
         <f t="shared" si="10"/>
-        <v>4581.3948906976739</v>
+        <v>3004.2314862290282</v>
       </c>
       <c r="AC22">
         <v>4581.3948906976739</v>
@@ -12695,14 +12691,14 @@
         <v>19</v>
       </c>
       <c r="J23" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="K23" s="46">
         <v>21</v>
       </c>
       <c r="L23" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="M23" s="46">
@@ -12718,11 +12714,11 @@
         <v>0</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
         <v>0.80176211453744495</v>
       </c>
       <c r="S23">
@@ -12733,12 +12729,12 @@
         <f t="shared" si="5"/>
         <v>35.492639948425918</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="54">
         <f t="shared" si="6"/>
-        <v>3640</v>
+        <v>2386.9155291715911</v>
       </c>
       <c r="V23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3640</v>
       </c>
       <c r="W23" s="52">
@@ -12761,7 +12757,7 @@
       </c>
       <c r="AB23">
         <f t="shared" si="10"/>
-        <v>4232.5577162790696</v>
+        <v>2775.482895907021</v>
       </c>
       <c r="AC23">
         <v>4232.5577162790696</v>
@@ -12796,14 +12792,14 @@
         <v>25</v>
       </c>
       <c r="J24" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="K24" s="46">
         <v>25</v>
       </c>
       <c r="L24" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="M24" s="46">
@@ -12819,11 +12815,11 @@
         <v>0</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R24">
-        <f t="shared" si="0"/>
         <v>1.1409691629955947</v>
       </c>
       <c r="S24">
@@ -12834,12 +12830,12 @@
         <f t="shared" si="5"/>
         <v>50.508756849683031</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="54">
         <f t="shared" si="6"/>
-        <v>5180</v>
+        <v>3396.7644068980335</v>
       </c>
       <c r="V24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5180</v>
       </c>
       <c r="W24" s="52">
@@ -12862,7 +12858,7 @@
       </c>
       <c r="AB24">
         <f t="shared" si="10"/>
-        <v>6023.2552116279066</v>
+        <v>3949.7256595599915</v>
       </c>
       <c r="AC24">
         <v>6023.2552116279066</v>
@@ -12897,14 +12893,14 @@
         <v>17</v>
       </c>
       <c r="J25" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K25" s="46">
         <v>20</v>
       </c>
       <c r="L25" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M25" s="46">
@@ -12920,11 +12916,11 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R25">
-        <f t="shared" si="0"/>
         <v>0.61674008810572689</v>
       </c>
       <c r="S25">
@@ -12935,12 +12931,12 @@
         <f t="shared" si="5"/>
         <v>27.3020307295584</v>
       </c>
-      <c r="U25">
-        <f t="shared" ref="U25:V40" si="11">N25*10</f>
-        <v>2800</v>
+      <c r="U25" s="54">
+        <f t="shared" si="6"/>
+        <v>1836.0888685935317</v>
       </c>
       <c r="V25">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="U25:V40" si="12">O25*10</f>
         <v>2800</v>
       </c>
       <c r="W25" s="52">
@@ -12963,7 +12959,7 @@
       </c>
       <c r="AB25">
         <f t="shared" si="10"/>
-        <v>3255.8136279069763</v>
+        <v>2134.9868430054007</v>
       </c>
       <c r="AC25">
         <v>3255.8136279069763</v>
@@ -12998,14 +12994,14 @@
         <v>22</v>
       </c>
       <c r="J26" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K26" s="46">
         <v>20</v>
       </c>
       <c r="L26" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="M26" s="46">
@@ -13021,11 +13017,11 @@
         <v>0</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="0"/>
         <v>0.66740088105726869</v>
       </c>
       <c r="S26">
@@ -13036,12 +13032,12 @@
         <f t="shared" si="5"/>
         <v>29.54469753948641</v>
       </c>
-      <c r="U26">
-        <f t="shared" si="11"/>
-        <v>3030</v>
+      <c r="U26" s="54">
+        <f t="shared" si="6"/>
+        <v>1986.9104542280004</v>
       </c>
       <c r="V26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3030</v>
       </c>
       <c r="W26" s="52">
@@ -13064,7 +13060,7 @@
       </c>
       <c r="AB26">
         <f t="shared" si="10"/>
-        <v>3523.2554616279067</v>
+        <v>2310.3607622522732</v>
       </c>
       <c r="AC26">
         <v>3523.2554616279067</v>
@@ -13099,14 +13095,14 @@
         <v>13</v>
       </c>
       <c r="J27" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K27" s="46">
         <v>16</v>
       </c>
       <c r="L27" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M27" s="46">
@@ -13122,11 +13118,11 @@
         <v>0</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R27">
-        <f t="shared" si="0"/>
         <v>0.63436123348017626</v>
       </c>
       <c r="S27">
@@ -13137,12 +13133,12 @@
         <f t="shared" si="5"/>
         <v>28.082088750402928</v>
       </c>
-      <c r="U27">
-        <f t="shared" si="11"/>
-        <v>2880</v>
+      <c r="U27" s="54">
+        <f t="shared" si="6"/>
+        <v>1888.5485505533472</v>
       </c>
       <c r="V27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2880</v>
       </c>
       <c r="W27" s="52">
@@ -13165,7 +13161,7 @@
       </c>
       <c r="AB27">
         <f t="shared" si="10"/>
-        <v>3348.8368744186046</v>
+        <v>2195.9864670912698</v>
       </c>
       <c r="AC27">
         <v>3348.8368744186046</v>
@@ -13200,14 +13196,14 @@
         <v>27</v>
       </c>
       <c r="J28" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="K28" s="46">
         <v>23</v>
       </c>
       <c r="L28" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="M28" s="46">
@@ -13223,11 +13219,11 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R28">
-        <f t="shared" si="0"/>
         <v>0.98017621145374445</v>
       </c>
       <c r="S28">
@@ -13238,12 +13234,12 @@
         <f t="shared" si="5"/>
         <v>43.390727409476739</v>
       </c>
-      <c r="U28">
-        <f t="shared" si="11"/>
-        <v>4450</v>
+      <c r="U28" s="54">
+        <f t="shared" si="6"/>
+        <v>2918.0698090147198</v>
       </c>
       <c r="V28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4450</v>
       </c>
       <c r="W28" s="52">
@@ -13266,7 +13262,7 @@
       </c>
       <c r="AB28">
         <f t="shared" si="10"/>
-        <v>5174.418087209302</v>
+        <v>3393.1040897764401</v>
       </c>
       <c r="AC28">
         <v>5174.418087209302</v>
@@ -13301,14 +13297,14 @@
         <v>15</v>
       </c>
       <c r="J29" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="K29" s="46">
         <v>14.5</v>
       </c>
       <c r="L29" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M29" s="46">
@@ -13324,11 +13320,11 @@
         <v>0</v>
       </c>
       <c r="Q29">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R29">
-        <f t="shared" si="0"/>
         <v>0.51982378854625555</v>
       </c>
       <c r="S29">
@@ -13339,12 +13335,12 @@
         <f t="shared" si="5"/>
         <v>23.011711614913509</v>
       </c>
-      <c r="U29">
-        <f t="shared" si="11"/>
-        <v>2360</v>
+      <c r="U29" s="54">
+        <f t="shared" si="6"/>
+        <v>1547.5606178145483</v>
       </c>
       <c r="V29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2360</v>
       </c>
       <c r="W29" s="52">
@@ -13367,7 +13363,7 @@
       </c>
       <c r="AB29">
         <f t="shared" si="10"/>
-        <v>2744.1857720930229</v>
+        <v>1799.4889105331238</v>
       </c>
       <c r="AC29">
         <v>2744.1857720930229</v>
@@ -13402,14 +13398,14 @@
         <v>17</v>
       </c>
       <c r="J30" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="K30" s="46">
         <v>19.5</v>
       </c>
       <c r="L30" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="M30" s="46">
@@ -13425,11 +13421,11 @@
         <v>0</v>
       </c>
       <c r="Q30">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R30">
-        <f t="shared" si="0"/>
         <v>0.92070484581497802</v>
       </c>
       <c r="S30">
@@ -13440,12 +13436,12 @@
         <f t="shared" si="5"/>
         <v>40.758031589126475</v>
       </c>
-      <c r="U30">
-        <f t="shared" si="11"/>
-        <v>4180</v>
+      <c r="U30" s="54">
+        <f t="shared" si="6"/>
+        <v>2741.0183824003443</v>
       </c>
       <c r="V30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4180</v>
       </c>
       <c r="W30" s="52">
@@ -13468,7 +13464,7 @@
       </c>
       <c r="AB30">
         <f t="shared" si="10"/>
-        <v>4860.4646302325582</v>
+        <v>3187.2303584866345</v>
       </c>
       <c r="AC30">
         <v>4860.4646302325582</v>
@@ -13503,7 +13499,7 @@
         <v>22</v>
       </c>
       <c r="J31" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
       <c r="K31" s="46">
@@ -13525,11 +13521,11 @@
         <v>0</v>
       </c>
       <c r="Q31">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R31">
-        <f t="shared" si="0"/>
         <v>0.82158590308370039</v>
       </c>
       <c r="S31">
@@ -13540,12 +13536,12 @@
         <f t="shared" si="5"/>
         <v>36.370205221876013</v>
       </c>
-      <c r="U31">
-        <f t="shared" si="11"/>
-        <v>3730</v>
+      <c r="U31" s="54">
+        <f t="shared" si="6"/>
+        <v>2445.9326713763835</v>
       </c>
       <c r="V31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3730</v>
       </c>
       <c r="W31" s="52">
@@ -13568,7 +13564,7 @@
       </c>
       <c r="AB31">
         <f t="shared" si="10"/>
-        <v>4337.2088686046509</v>
+        <v>2844.1074730036235</v>
       </c>
       <c r="AC31">
         <v>4337.2088686046509</v>
@@ -13603,14 +13599,14 @@
         <v>15</v>
       </c>
       <c r="J32" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.5</v>
       </c>
       <c r="K32" s="46">
         <v>14.5</v>
       </c>
       <c r="L32" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="M32" s="46">
@@ -13626,11 +13622,11 @@
         <v>0</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R32">
-        <f t="shared" si="0"/>
         <v>0.81938325991189431</v>
       </c>
       <c r="S32">
@@ -13641,12 +13637,12 @@
         <f t="shared" si="5"/>
         <v>36.272697969270446</v>
       </c>
-      <c r="U32">
-        <f t="shared" si="11"/>
-        <v>3720</v>
+      <c r="U32" s="54">
+        <f t="shared" si="6"/>
+        <v>2439.3752111314066</v>
       </c>
       <c r="V32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3720</v>
       </c>
       <c r="W32" s="52">
@@ -13669,7 +13665,7 @@
       </c>
       <c r="AB32">
         <f t="shared" si="10"/>
-        <v>4325.5809627906974</v>
+        <v>2836.48251999289</v>
       </c>
       <c r="AC32">
         <v>4325.5809627906974</v>
@@ -13704,14 +13700,14 @@
         <v>20</v>
       </c>
       <c r="J33" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="K33" s="46">
         <v>19</v>
       </c>
       <c r="L33" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="M33" s="46">
@@ -13727,11 +13723,11 @@
         <v>0</v>
       </c>
       <c r="Q33">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R33">
-        <f t="shared" si="0"/>
         <v>0.65859030837004406</v>
       </c>
       <c r="S33">
@@ -13742,12 +13738,12 @@
         <f t="shared" si="5"/>
         <v>29.15466852906415</v>
       </c>
-      <c r="U33">
-        <f t="shared" si="11"/>
-        <v>2990</v>
+      <c r="U33" s="54">
+        <f t="shared" si="6"/>
+        <v>1960.6806132480929</v>
       </c>
       <c r="V33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2990</v>
       </c>
       <c r="W33" s="52">
@@ -13770,7 +13766,7 @@
       </c>
       <c r="AB33">
         <f t="shared" si="10"/>
-        <v>3476.7438383720928</v>
+        <v>2279.8609502093386</v>
       </c>
       <c r="AC33">
         <v>3476.7438383720928</v>
@@ -13805,14 +13801,14 @@
         <v>25</v>
       </c>
       <c r="J34" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
       <c r="K34" s="46">
         <v>19.5</v>
       </c>
       <c r="L34" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="M34" s="46">
@@ -13828,11 +13824,11 @@
         <v>0</v>
       </c>
       <c r="Q34">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R34">
-        <f t="shared" si="0"/>
         <v>0.73348017621145378</v>
       </c>
       <c r="S34">
@@ -13843,12 +13839,12 @@
         <f t="shared" si="5"/>
         <v>32.469915117653379</v>
       </c>
-      <c r="U34">
-        <f t="shared" si="11"/>
-        <v>3330</v>
+      <c r="U34" s="54">
+        <f t="shared" si="6"/>
+        <v>2183.6342615773074</v>
       </c>
       <c r="V34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3330</v>
       </c>
       <c r="W34" s="52">
@@ -13871,7 +13867,7 @@
       </c>
       <c r="AB34">
         <f t="shared" si="10"/>
-        <v>3872.0926360465114</v>
+        <v>2539.1093525742804</v>
       </c>
       <c r="AC34">
         <v>3872.0926360465114</v>
@@ -13906,14 +13902,14 @@
         <v>15</v>
       </c>
       <c r="J35" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10.5</v>
       </c>
       <c r="K35" s="46">
         <v>10.5</v>
       </c>
       <c r="L35" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="M35" s="46">
@@ -13929,11 +13925,11 @@
         <v>0</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R35">
-        <f t="shared" si="0"/>
         <v>0.48898678414096919</v>
       </c>
       <c r="S35">
@@ -13944,12 +13940,12 @@
         <f t="shared" si="5"/>
         <v>21.646610078435586</v>
       </c>
-      <c r="U35">
-        <f t="shared" si="11"/>
-        <v>2220</v>
+      <c r="U35" s="54">
+        <f t="shared" si="6"/>
+        <v>1455.7561743848714</v>
       </c>
       <c r="V35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2220</v>
       </c>
       <c r="W35" s="52">
@@ -13972,7 +13968,7 @@
       </c>
       <c r="AB35">
         <f t="shared" si="10"/>
-        <v>2581.3950906976743</v>
+        <v>1692.7395683828533</v>
       </c>
       <c r="AC35">
         <v>2581.3950906976743</v>
@@ -14007,14 +14003,14 @@
         <v>23</v>
       </c>
       <c r="J36" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="K36" s="46">
         <v>17</v>
       </c>
       <c r="L36" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
       <c r="M36" s="46">
@@ -14030,11 +14026,11 @@
         <v>0</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R36">
-        <f t="shared" si="0"/>
         <v>0.72026431718061679</v>
       </c>
       <c r="S36">
@@ -14045,12 +14041,12 @@
         <f t="shared" si="5"/>
         <v>31.884871602019988</v>
       </c>
-      <c r="U36">
-        <f t="shared" si="11"/>
-        <v>3270</v>
+      <c r="U36" s="54">
+        <f t="shared" si="6"/>
+        <v>2144.2895001074462</v>
       </c>
       <c r="V36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3270</v>
       </c>
       <c r="W36" s="52">
@@ -14073,7 +14069,7 @@
       </c>
       <c r="AB36">
         <f t="shared" si="10"/>
-        <v>3802.3252011627906</v>
+        <v>2493.359634509879</v>
       </c>
       <c r="AC36">
         <v>3802.3252011627906</v>
@@ -14108,14 +14104,14 @@
         <v>19</v>
       </c>
       <c r="J37" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="K37" s="46">
         <v>18</v>
       </c>
       <c r="L37" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="M37" s="46">
@@ -14131,11 +14127,11 @@
         <v>0</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R37">
-        <f t="shared" si="0"/>
         <v>0.97577092511013219</v>
       </c>
       <c r="S37">
@@ -14146,12 +14142,12 @@
         <f t="shared" si="5"/>
         <v>43.195712904265612</v>
       </c>
-      <c r="U37">
-        <f t="shared" si="11"/>
-        <v>4430</v>
+      <c r="U37" s="54">
+        <f t="shared" si="6"/>
+        <v>2904.9548885247664</v>
       </c>
       <c r="V37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4430</v>
       </c>
       <c r="W37" s="52">
@@ -14174,7 +14170,7 @@
       </c>
       <c r="AB37">
         <f t="shared" si="10"/>
-        <v>5151.1622755813951</v>
+        <v>3377.8541837549737</v>
       </c>
       <c r="AC37">
         <v>5151.1622755813951</v>
@@ -14209,14 +14205,14 @@
         <v>27</v>
       </c>
       <c r="J38" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23.5</v>
       </c>
       <c r="K38" s="46">
         <v>23.5</v>
       </c>
       <c r="L38" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="M38" s="46">
@@ -14232,11 +14228,11 @@
         <v>0</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R38">
-        <f t="shared" si="0"/>
         <v>0.55726872246696035</v>
       </c>
       <c r="S38">
@@ -14247,12 +14243,12 @@
         <f t="shared" si="5"/>
         <v>24.669334909208125</v>
       </c>
-      <c r="U38">
-        <f t="shared" si="11"/>
-        <v>2530</v>
+      <c r="U38" s="54">
+        <f t="shared" si="6"/>
+        <v>1659.0374419791553</v>
       </c>
       <c r="V38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2530</v>
       </c>
       <c r="W38" s="52">
@@ -14275,7 +14271,7 @@
       </c>
       <c r="AB38">
         <f t="shared" si="10"/>
-        <v>2941.8601709302325</v>
+        <v>1929.1131117155942</v>
       </c>
       <c r="AC38">
         <v>2941.8601709302325</v>
@@ -14310,14 +14306,14 @@
         <v>25</v>
       </c>
       <c r="J39" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.5</v>
       </c>
       <c r="K39" s="46">
         <v>26.5</v>
       </c>
       <c r="L39" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="M39" s="46">
@@ -14333,11 +14329,11 @@
         <v>0</v>
       </c>
       <c r="Q39">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R39">
-        <f t="shared" si="0"/>
         <v>0.69823788546255505</v>
       </c>
       <c r="S39">
@@ -14348,12 +14344,12 @@
         <f t="shared" si="5"/>
         <v>30.90979907596433</v>
       </c>
-      <c r="U39">
-        <f t="shared" si="11"/>
-        <v>3170</v>
+      <c r="U39" s="54">
+        <f t="shared" si="6"/>
+        <v>2078.7148976576768</v>
       </c>
       <c r="V39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3170</v>
       </c>
       <c r="W39" s="52">
@@ -14376,7 +14372,7 @@
       </c>
       <c r="AB39">
         <f t="shared" si="10"/>
-        <v>3686.0461430232554</v>
+        <v>2417.1101044025431</v>
       </c>
       <c r="AC39">
         <v>3686.0461430232554</v>
@@ -14411,14 +14407,14 @@
         <v>16</v>
       </c>
       <c r="J40" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="K40" s="46">
         <v>16</v>
       </c>
       <c r="L40" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="M40" s="46">
@@ -14434,11 +14430,11 @@
         <v>0</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="2"/>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="3"/>
-        <v>16.399999999999999</v>
-      </c>
-      <c r="R40">
-        <f t="shared" si="0"/>
         <v>0.55506607929515417</v>
       </c>
       <c r="S40">
@@ -14449,12 +14445,12 @@
         <f t="shared" si="5"/>
         <v>24.571827656602558</v>
       </c>
-      <c r="U40">
-        <f t="shared" si="11"/>
-        <v>2520</v>
+      <c r="U40" s="54">
+        <f t="shared" si="6"/>
+        <v>1652.4799817341784</v>
       </c>
       <c r="V40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2520</v>
       </c>
       <c r="W40" s="52">
@@ -14477,7 +14473,7 @@
       </c>
       <c r="AB40">
         <f t="shared" si="10"/>
-        <v>2930.232265116279</v>
+        <v>1921.4881587048606</v>
       </c>
       <c r="AC40">
         <v>2930.232265116279</v>
@@ -14554,7 +14550,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
